--- a/la_results/tables_results.xlsx
+++ b/la_results/tables_results.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\cycling-chd\la_results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>mean</t>
   </si>
@@ -44,7 +39,16 @@
     <t>95% Credible Intervals</t>
   </si>
   <si>
-    <t>Table 1: Unadjusted incidence rate ratios for mode of transport to work as predictors for acute myocardial infarction, 2003-2013.</t>
+    <t>Unadjusted</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Table 2: Unadjusted incidence rate ratios for mode of transport to work as predictors for acute myocardial infarction, 2003-2013.</t>
+  </si>
+  <si>
+    <t>Table 1: Unadjusted and adjusted incidence rate ratios for mode of transport to work as predictors for acute myocardial infarction, 2011-2013.</t>
   </si>
 </sst>
 </file>
@@ -52,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +79,21 @@
       <color rgb="FFFFFFFF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,33 +145,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,116 +480,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>0.99386140000000001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>0.97508349999999999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>1.012613</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>0.98377159999999997</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>0.95555279999999998</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>1.0151239999999999</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <v>0.97187840000000003</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="6">
         <v>0.94674170000000002</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="6">
         <v>0.99700460000000002</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>1.0012194000000001</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="3">
         <v>0.97391709999999998</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="3">
         <v>1.0308944</v>
       </c>
     </row>
@@ -569,40 +597,40 @@
       <c r="A5">
         <v>2004</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>1.0095869</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>0.99439409999999995</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>1.0248409999999999</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>0.98786260000000004</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>0.96455100000000005</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>1.013036</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>0.98418300000000003</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>0.96617739999999996</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>1.0021800000000001</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <v>0.99755799999999994</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="3">
         <v>0.97761229999999999</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="3">
         <v>1.018726</v>
       </c>
     </row>
@@ -610,40 +638,40 @@
       <c r="A6">
         <v>2005</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>1.008181</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>0.99272070000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>1.0237000000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>0.981352</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>0.95679559999999997</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>1.0077560000000001</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <v>0.97517989999999999</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="6">
         <v>0.95607629999999999</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="6">
         <v>0.99421700000000002</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <v>1.0108946999999999</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="3">
         <v>0.98957059999999997</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="3">
         <v>1.033603</v>
       </c>
     </row>
@@ -651,40 +679,40 @@
       <c r="A7">
         <v>2006</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>1.004672</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>0.98870029999999998</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>1.020718</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>0.98438870000000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>0.95802639999999994</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>1.012956</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <v>0.97490619999999995</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="6">
         <v>0.95542819999999995</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="6">
         <v>0.99434029999999995</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <v>0.99303509999999995</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="3">
         <v>0.97129920000000003</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="3">
         <v>1.0161385000000001</v>
       </c>
     </row>
@@ -692,40 +720,40 @@
       <c r="A8">
         <v>2007</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>1.0085746</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>0.9930561</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>1.0241659999999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>0.9983204</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>0.97421919999999995</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>1.0244679999999999</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="6">
         <v>0.97568679999999997</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="6">
         <v>0.95683490000000004</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="6">
         <v>0.99448380000000003</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>1.0037480000000001</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="3">
         <v>0.98323269999999996</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="3">
         <v>1.0255810000000001</v>
       </c>
     </row>
@@ -733,40 +761,40 @@
       <c r="A9">
         <v>2008</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>1.0140589</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>0.99943130000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>1.0287416</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>0.98456220000000005</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>0.96209020000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>1.0085894</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>0.984093</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>0.96639699999999995</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>1.0018290000000001</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <v>0.99552839999999998</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="3">
         <v>0.97604690000000005</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="3">
         <v>1.016135</v>
       </c>
     </row>
@@ -774,40 +802,40 @@
       <c r="A10">
         <v>2009</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>1.0062036999999999</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>0.99289870000000002</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>1.01955</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>0.98807109999999998</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>0.967561</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>1.009933</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="6">
         <v>0.98089800000000005</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="6">
         <v>0.96506060000000005</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="6">
         <v>0.99671529999999997</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <v>0.99312049999999996</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="3">
         <v>0.97592639999999997</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="3">
         <v>1.0111733000000001</v>
       </c>
     </row>
@@ -815,40 +843,40 @@
       <c r="A11">
         <v>2010</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>1.0073346999999999</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>0.99402860000000004</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>1.0206789999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>0.98129529999999998</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>0.96127450000000003</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>1.0026139999999999</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="6">
         <v>0.98468520000000004</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="6">
         <v>0.97025709999999998</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="6">
         <v>0.99909020000000004</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <v>0.98513980000000001</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="3">
         <v>0.96911860000000005</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="3">
         <v>1.0018448</v>
       </c>
     </row>
@@ -856,40 +884,40 @@
       <c r="A12">
         <v>2011</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>1.0147747</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>1.0014281</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>1.0281682000000001</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>0.98031559999999995</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>0.95946960000000003</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>1.0024759999999999</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>0.9888382</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>0.97386890000000004</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>1.0038180000000001</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <v>0.98323419999999995</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="3">
         <v>0.96644779999999997</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="3">
         <v>1.0007509999999999</v>
       </c>
     </row>
@@ -897,94 +925,483 @@
       <c r="A13">
         <v>2012</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>1.0047879</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>0.99228130000000003</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>1.0173318</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="6">
         <v>0.96594869999999999</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <v>0.94569990000000004</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="6">
         <v>0.98720859999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>0.98931820000000004</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>0.97426570000000001</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>1.0044369</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="6">
         <v>0.98078869999999996</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="6">
         <v>0.96351100000000001</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="6">
         <v>0.99882409999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>2013</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>1.0033593000000001</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>0.98887270000000005</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="4">
         <v>1.0179180000000001</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <v>0.97913740000000005</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>0.95507019999999998</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>1.004516</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="4">
         <v>0.98845300000000003</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="4">
         <v>0.97108930000000004</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="4">
         <v>1.005844</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="4">
         <v>0.98369260000000003</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="4">
         <v>0.96383989999999997</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="4">
         <v>1.0045189999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1.0244808000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.0084960999999999</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.0407112000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.9508875</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.92502600000000001</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.97723680000000002</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1.0125200000000001</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.99549310000000002</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1.0299341</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.97196210000000005</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.95590609999999998</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.98858710000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1.0167124000000001</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.0010981000000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1.0325462999999999</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.94436960000000003</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.91720400000000002</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.97215669999999998</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1.0130299</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.99519769999999996</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1.0312965000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.97248349999999995</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.95525780000000005</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.99038610000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1.0150599</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.99648789999999998</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1.0339602000000001</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.95240519999999995</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.92071119999999995</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.98447770000000001</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1.0078437</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0.98810759999999997</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1.0281149999999999</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0.98048270000000004</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0.96115859999999997</v>
+      </c>
+      <c r="M23" s="15">
+        <v>1.0006440000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0.99557260000000003</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.97858659999999997</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1.0129037000000001</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.9878479</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.96200090000000005</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1.0140613999999999</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.9904463</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.97411460000000005</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1.0070688000000001</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.98382930000000002</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.96882749999999995</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.99917040000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.98319579999999995</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.96721539999999995</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.99944160000000004</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.98080820000000002</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.95484630000000004</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1.0070418999999999</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0.98703070000000004</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0.96979470000000001</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1.0045907000000001</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.98294320000000002</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.96698709999999999</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.99931440000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.97869980000000001</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.95839600000000003</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.99943360000000003</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.99611810000000001</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.96415899999999999</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1.0285120999999999</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0.98595259999999996</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.96577089999999999</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1.0065820000000001</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.99244460000000001</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0.97375500000000004</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1.0117133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="24">
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
